--- a/data_small_extended.xlsx
+++ b/data_small_extended.xlsx
@@ -8,21 +8,33 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FvTop\Documents\GitHub\airplane-math\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1524D2A9-7D61-4310-8C8B-6078DA19062F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98206ECF-BEA3-48ED-8658-92DAE94CF9C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2928" yWindow="2760" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General information" sheetId="1" r:id="rId1"/>
     <sheet name="Times per aircraft" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
   <si>
     <t>Number of aircrafts</t>
   </si>
@@ -58,6 +70,9 @@
   </si>
   <si>
     <t>Added safety time</t>
+  </si>
+  <si>
+    <t>New safety time:</t>
   </si>
 </sst>
 </file>
@@ -447,7 +462,7 @@
   <dimension ref="A1:B81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -716,10 +731,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F83"/>
+  <dimension ref="A1:G83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -729,9 +744,11 @@
     <col min="3" max="3" width="18.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -750,8 +767,11 @@
       <c r="F1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -770,8 +790,12 @@
       <c r="F2">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G2">
+        <f>'General information'!$B$2+'Times per aircraft'!F2</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -790,8 +814,12 @@
       <c r="F3">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G3">
+        <f>'General information'!$B$2+'Times per aircraft'!F3</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -810,8 +838,12 @@
       <c r="F4">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G4">
+        <f>'General information'!$B$2+'Times per aircraft'!F4</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -830,8 +862,12 @@
       <c r="F5">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G5">
+        <f>'General information'!$B$2+'Times per aircraft'!F5</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -850,8 +886,12 @@
       <c r="F6">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G6">
+        <f>'General information'!$B$2+'Times per aircraft'!F6</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -870,8 +910,12 @@
       <c r="F7">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G7">
+        <f>'General information'!$B$2+'Times per aircraft'!F7</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -890,8 +934,12 @@
       <c r="F8">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G8">
+        <f>'General information'!$B$2+'Times per aircraft'!F8</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -910,8 +958,12 @@
       <c r="F9">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G9">
+        <f>'General information'!$B$2+'Times per aircraft'!F9</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -930,8 +982,12 @@
       <c r="F10">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G10">
+        <f>'General information'!$B$2+'Times per aircraft'!F10</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -950,17 +1006,21 @@
       <c r="F11">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="G11">
+        <f>'General information'!$B$2+'Times per aircraft'!F11</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
     </row>
-    <row r="14" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
     </row>
-    <row r="15" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
     </row>
-    <row r="16" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
